--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C1F190-94BD-4886-A059-248DACEF0EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26877748-5737-4106-A7F3-3B80BAC20FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30570" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView xWindow="2340" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,7 +579,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
         <v>27</v>

--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -1,206 +1,333 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\luban_examples\DesignerConfigs\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26877748-5737-4106-A7F3-3B80BAC20FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="1875" windowWidth="25140" windowHeight="14325" xr2:uid="{AEF47366-C0EE-4DD8-9053-59035C5D2322}"/>
+    <workbookView windowWidth="22800" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+  <si>
+    <t>##var</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>*fields</t>
+  </si>
   <si>
     <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>全名(包含模块和名字)</t>
+  </si>
+  <si>
+    <t>父类(名字可以是全名，或者不包含命名空间，因为默认跟子类相同的命名空间)</t>
+  </si>
+  <si>
+    <t>分割符</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>分组</t>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean1</t>
+  </si>
+  <si>
+    <t>这是个测试excel结构</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>int</t>
   </si>
   <si>
     <t>最高品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>黑色的</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>蓝色的</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
   <si>
     <t>最差品质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>comment</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sep</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字段名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是个测试excel结构</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.TestExcelBean2</t>
   </si>
   <si>
     <t>y1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>y3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分割符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>full_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test.TestExcelBean2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tags</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*fields</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test.Shape</t>
+  </si>
+  <si>
+    <t>test.Circle</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>圆</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>半径</t>
+  </si>
+  <si>
+    <t>test.Rectangle</t>
+  </si>
+  <si>
+    <t>矩形</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>宽度</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>高度</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,16 +336,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -226,15 +529,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -242,26 +781,68 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="29" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+  <cellStyles count="49">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -310,7 +891,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -343,26 +924,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -395,23 +959,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -553,192 +1100,250 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{482160D1-8E9F-4701-8C89-55D43E73138E}">
-  <dimension ref="A1:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.625" customWidth="1"/>
-    <col min="3" max="5" width="15" customWidth="1"/>
-    <col min="6" max="8" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="20.6285714285714" customWidth="1"/>
+    <col min="3" max="3" width="29.8571428571429" customWidth="1"/>
+    <col min="4" max="6" width="15" customWidth="1"/>
+    <col min="7" max="9" width="13.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="2"/>
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H2" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>30</v>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
       </c>
-      <c r="I4" t="s">
-        <v>3</v>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
+    <row r="5" spans="7:10">
       <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="7:10">
+      <c r="G6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" t="s">
-        <v>5</v>
+      <c r="J6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
-        <v>6</v>
+    <row r="7" spans="7:10">
+      <c r="G7" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
         <v>22</v>
       </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
+    <row r="9" spans="7:10">
+      <c r="G9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" t="s">
-        <v>5</v>
+    <row r="10" spans="7:10">
+      <c r="G10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" t="s">
-        <v>6</v>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="7:10">
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="G1:K1"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -139,7 +139,7 @@
     <t>半径</t>
   </si>
   <si>
-    <t>test.Rectangle</t>
+    <t>test2.Rectangle</t>
   </si>
   <si>
     <t>矩形</t>
@@ -162,12 +162,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -190,21 +190,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -214,29 +229,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -250,8 +242,63 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -265,65 +312,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -348,6 +341,162 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -360,163 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,69 +520,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,8 +552,71 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,148 +625,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1109,7 +1102,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1312,7 +1305,7 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>

--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22800" windowHeight="7230"/>
+    <workbookView windowWidth="22331" windowHeight="8484"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>parent</t>
   </si>
   <si>
+    <t>alias</t>
+  </si>
+  <si>
     <t>sep</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>父类(名字可以是全名，或者不包含命名空间，因为默认跟子类相同的命名空间)</t>
+  </si>
+  <si>
+    <t>别名</t>
   </si>
   <si>
     <t>分割符</t>
@@ -162,161 +168,161 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -341,13 +347,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,6 +431,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -371,7 +449,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,43 +503,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,85 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,65 +526,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -616,7 +563,66 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,148 +631,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -774,63 +780,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="29" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="7" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="31" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1099,21 +1105,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="2" max="2" width="20.6285714285714" customWidth="1"/>
-    <col min="3" max="3" width="29.8571428571429" customWidth="1"/>
-    <col min="4" max="6" width="15" customWidth="1"/>
-    <col min="7" max="9" width="13.5047619047619" customWidth="1"/>
+    <col min="2" max="2" width="20.6296296296296" customWidth="1"/>
+    <col min="3" max="4" width="29.8611111111111" customWidth="1"/>
+    <col min="5" max="7" width="15" customWidth="1"/>
+    <col min="8" max="10" width="13.5092592592593" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1132,21 +1138,21 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
@@ -1154,186 +1160,198 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
+      <c r="L2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="K3" t="s">
+        <v>19</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:11">
       <c r="B4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
         <v>20</v>
       </c>
+      <c r="F4" t="s">
+        <v>21</v>
+      </c>
       <c r="H4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="8:11">
+      <c r="H5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="8:11">
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="8:11">
+      <c r="H7" t="s">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="J4" t="s">
-        <v>22</v>
+      <c r="H8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="7:10">
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
+    <row r="9" spans="8:11">
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="6" spans="7:10">
-      <c r="G6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="7:10">
-      <c r="G7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" t="s">
+    <row r="10" spans="8:11">
+      <c r="H10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="7:10">
-      <c r="G9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="7:10">
-      <c r="G10" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="J10" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="13" spans="2:10">
+    <row r="13" spans="2:11">
       <c r="B13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="E13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J13" t="s">
-        <v>40</v>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="14" spans="2:10">
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>43</v>
-      </c>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="7:10">
-      <c r="G15" t="s">
-        <v>45</v>
-      </c>
+    <row r="15" spans="8:11">
       <c r="H15" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="H1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/DesignerConfigs/Datas/__beans__.xlsx
+++ b/DesignerConfigs/Datas/__beans__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12900"/>
+    <workbookView windowWidth="16095" windowHeight="8730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,9 @@
     <t>parent</t>
   </si>
   <si>
+    <t>valueType</t>
+  </si>
+  <si>
     <t>alias</t>
   </si>
   <si>
@@ -56,6 +59,9 @@
   </si>
   <si>
     <t>父类(名字可以是全名，或者不包含命名空间，因为默认跟子类相同的命名空间)</t>
+  </si>
+  <si>
+    <t>是否值类型</t>
   </si>
   <si>
     <t>别名</t>
@@ -1108,21 +1114,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.6285714285714" customWidth="1"/>
-    <col min="3" max="4" width="29.8571428571429" customWidth="1"/>
-    <col min="5" max="8" width="15" customWidth="1"/>
-    <col min="9" max="11" width="13.5047619047619" customWidth="1"/>
+    <col min="3" max="5" width="29.8571428571429" customWidth="1"/>
+    <col min="6" max="9" width="15" customWidth="1"/>
+    <col min="10" max="12" width="13.5047619047619" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,220 +1153,226 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I2" t="s">
-        <v>9</v>
-      </c>
       <c r="J2" t="s">
         <v>10</v>
       </c>
       <c r="K2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M2" t="s">
         <v>6</v>
       </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:13">
       <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
         <v>22</v>
       </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
       <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="10:13">
+      <c r="J5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="10:13">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="10:13">
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" t="s">
         <v>23</v>
       </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>25</v>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="5" spans="9:12">
-      <c r="I5" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>28</v>
+    <row r="9" spans="10:13">
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="9:12">
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="9:12">
-      <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="10" spans="10:13">
+      <c r="J10" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" t="s">
         <v>32</v>
-      </c>
-      <c r="L7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12">
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="9:12">
-      <c r="I9" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="9:12">
-      <c r="I10" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" t="s">
-        <v>32</v>
-      </c>
-      <c r="L10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:13">
       <c r="B13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13">
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F13" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="L13" t="s">
-        <v>43</v>
+      <c r="E14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+      <c r="K14" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="B14" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="9:12">
-      <c r="I15" t="s">
-        <v>48</v>
-      </c>
+    <row r="15" spans="10:13">
       <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="L15" t="s">
-        <v>49</v>
+        <v>50</v>
+      </c>
+      <c r="K15" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="J1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
